--- a/output.xlsx
+++ b/output.xlsx
@@ -468,15 +468,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>251640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>91620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>578880</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:colOff>418860</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>75540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -489,8 +489,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9371880" y="190440"/>
-          <a:ext cx="4884120" cy="2681640"/>
+          <a:off x="7132500" y="3063180"/>
+          <a:ext cx="3847680" cy="2681640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -505,15 +505,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>37800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>487380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -526,8 +526,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9440280" y="2971800"/>
-          <a:ext cx="5034240" cy="2681640"/>
+          <a:off x="7223760" y="335280"/>
+          <a:ext cx="3824940" cy="2681640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -709,16 +709,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>403920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259140</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -731,7 +731,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7947720" y="3419280"/>
+          <a:off x="7216200" y="28380"/>
           <a:ext cx="4312860" cy="2828520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -746,16 +746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -768,7 +768,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7849080" y="276840"/>
+          <a:off x="7117560" y="2860020"/>
           <a:ext cx="4419120" cy="2820600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2695,7 +2695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
@@ -3405,7 +3405,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
